--- a/classfiers/bottleneck/multinomialNB/bottleneck-multinomialNB-results.xlsx
+++ b/classfiers/bottleneck/multinomialNB/bottleneck-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09793814432989691</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5911214953271028</v>
+        <v>0.6059113300492611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2433520755627308</v>
+        <v>0.2303523035230352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5911214953271028</v>
+        <v>0.6059113300492611</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.217948717948718</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8048450565666503</v>
+        <v>0.8325123152709359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5898918783002263</v>
+        <v>0.5130446476600322</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8048450565666504</v>
+        <v>0.8325123152709359</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1238095238095238</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6471576227390181</v>
+        <v>0.8782679738562091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4642916400009481</v>
+        <v>0.6451689671584959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6471576227390181</v>
+        <v>0.8782679738562091</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1770833333333333</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7876427829698858</v>
+        <v>0.7597153804050356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5348370927318296</v>
+        <v>0.4724986904138292</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7876427829698858</v>
+        <v>0.7597153804050356</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1007194244604317</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5968328141225338</v>
+        <v>0.7512315270935961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3790742546525862</v>
+        <v>0.4100564816090371</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5968328141225338</v>
+        <v>0.7512315270935961</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1434998287763807</v>
+        <v>0.1187607620350356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6855199543450381</v>
+        <v>0.7655277053350076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4422893882496641</v>
+        <v>0.4542242180728859</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6855199543450381</v>
+        <v>0.7655277053350076</v>
       </c>
     </row>
   </sheetData>
